--- a/data/trans_camb/P1426-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P1426-Habitat-trans_camb.xlsx
@@ -618,7 +618,7 @@
         <v>-0.3278109600405473</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4.061741864812525</v>
+        <v>4.061741864812523</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>-0.5275949977629323</v>
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.262292109059031</v>
+        <v>-2.329758867670451</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>2.00090430054503</v>
+        <v>1.946612052688211</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.771303790796483</v>
+        <v>-2.043298979238527</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>2.395413291755022</v>
+        <v>2.195647567545037</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-1.637087894799581</v>
+        <v>-1.739798155456668</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>2.70630839913329</v>
+        <v>2.823321576144842</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.8751829066106112</v>
+        <v>0.576104424035762</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.915977729287829</v>
+        <v>5.61245635659584</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.166848530362267</v>
+        <v>1.144655451507446</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5.513888730735913</v>
+        <v>5.539312043509587</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.4576351464586806</v>
+        <v>0.4488187160666393</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>5.214510126284003</v>
+        <v>5.271751974265646</v>
       </c>
     </row>
     <row r="7">
@@ -696,7 +696,7 @@
         <v>-0.1627127521086805</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>2.016092436619394</v>
+        <v>2.016092436619393</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.2482650167107001</v>
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.7238426781894881</v>
+        <v>-0.6966096740898376</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.5902128264472777</v>
+        <v>0.4776672179828107</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.62445255629597</v>
+        <v>-0.6899504172942705</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.7277276390677173</v>
+        <v>0.6444606912387022</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.6068333191231647</v>
+        <v>-0.6270191257297145</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8721072800419022</v>
+        <v>0.9103138618203854</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.7161862797546995</v>
+        <v>0.4805444405064951</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>4.186701127654094</v>
+        <v>4.041794788951725</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.120449315114233</v>
+        <v>1.089659325037011</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>4.852708234627971</v>
+        <v>4.705040776565165</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.2932685861489656</v>
+        <v>0.2978629389878912</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>3.337455331912986</v>
+        <v>3.516497861990018</v>
       </c>
     </row>
     <row r="10">
@@ -784,7 +784,7 @@
         <v>0.1919177399515224</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>3.161713731377435</v>
+        <v>3.161713731377434</v>
       </c>
     </row>
     <row r="11">
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.389592761046449</v>
+        <v>-1.30997482753495</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.952176649412436</v>
+        <v>2.201678826001862</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.5619612868052664</v>
+        <v>-0.4603031478270667</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.452885834486244</v>
+        <v>1.397976692002196</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.5820576792151467</v>
+        <v>-0.6012398155106122</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>2.220503818070048</v>
+        <v>2.14472699016802</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.6315523835868321</v>
+        <v>0.7189148200777851</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.804353294856069</v>
+        <v>4.954145070070466</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.074777586334789</v>
+        <v>1.908588524031722</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.988115891193405</v>
+        <v>4.241918680673614</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1.021718470939905</v>
+        <v>1.034251941948933</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>4.154332241781821</v>
+        <v>4.004908456580464</v>
       </c>
     </row>
     <row r="13">
@@ -873,22 +873,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.7198362715495622</v>
+        <v>-0.6585726917526213</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.8588855849755416</v>
+        <v>0.869136325503385</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.2664693821593196</v>
+        <v>-0.2283197856954201</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.5149726313224414</v>
+        <v>0.5527384840871478</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3265784308146326</v>
+        <v>-0.3247782173063787</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>1.039093256690057</v>
+        <v>1.022299679717164</v>
       </c>
     </row>
     <row r="15">
@@ -899,22 +899,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.6880279583859874</v>
+        <v>1.040614445484382</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>6.18399840913422</v>
+        <v>5.779292173954094</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.748361597559439</v>
+        <v>1.719929708984437</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>3.550245248715398</v>
+        <v>3.992360707083953</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.973318772694472</v>
+        <v>0.9308450601398282</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>3.810285616457467</v>
+        <v>3.523561656270379</v>
       </c>
     </row>
     <row r="16">
@@ -932,7 +932,7 @@
         <v>0.3667334999495342</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>2.64940358225713</v>
+        <v>2.649403582257131</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.1573800353431534</v>
@@ -955,22 +955,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.8852630715831209</v>
+        <v>-0.8008825157922932</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1.062868970021011</v>
+        <v>1.280893891223581</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.284103311946505</v>
+        <v>-1.289839808556309</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.4663252845548899</v>
+        <v>0.63342331525148</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-0.7096496635457561</v>
+        <v>-0.6772343628660579</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>1.402574454168863</v>
+        <v>1.388871571492291</v>
       </c>
     </row>
     <row r="18">
@@ -981,22 +981,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.40535225592359</v>
+        <v>1.375831575263836</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.1022311454686</v>
+        <v>4.208756832030915</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.663359241043911</v>
+        <v>1.707848559139425</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.550192512643334</v>
+        <v>3.591315343440864</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.112546755551318</v>
+        <v>1.176507177325796</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>3.497895057703757</v>
+        <v>3.540012442159927</v>
       </c>
     </row>
     <row r="19">
@@ -1033,22 +1033,22 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.58875526685402</v>
+        <v>-0.6273271572300622</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.3964158555461179</v>
+        <v>0.4775112128853688</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.5305474982270985</v>
+        <v>-0.5427390217671261</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.1194596466038794</v>
+        <v>0.1736693302185678</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.3786114971071887</v>
+        <v>-0.3768570231581727</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6770381054289333</v>
+        <v>0.6036354949834388</v>
       </c>
     </row>
     <row r="21">
@@ -1059,22 +1059,22 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>3.256667868523999</v>
+        <v>2.930618754286906</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>9.252861882811798</v>
+        <v>9.333661573992085</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.506827246650175</v>
+        <v>1.546283611475497</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>3.370606736792475</v>
+        <v>3.433593528808247</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.153268372757303</v>
+        <v>1.155960559733934</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>3.808473546150259</v>
+        <v>3.757893022828191</v>
       </c>
     </row>
     <row r="22">
@@ -1092,19 +1092,19 @@
         <v>0.2141746420134961</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>2.540574591498647</v>
+        <v>2.540574591498648</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>0.06635313794093912</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2.503602349587199</v>
+        <v>2.503602349587198</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.1364610154479498</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>2.521823167034471</v>
+        <v>2.52182316703447</v>
       </c>
     </row>
     <row r="23">
@@ -1115,22 +1115,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.05559373043251</v>
+        <v>-1.029712204480785</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>1.1744324267328</v>
+        <v>1.004174998178266</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.171470553461292</v>
+        <v>-1.178567093111904</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1.214907522343968</v>
+        <v>1.214760034349374</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.6933942867962121</v>
+        <v>-0.7007072511058915</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>1.53366327521068</v>
+        <v>1.604677684219625</v>
       </c>
     </row>
     <row r="24">
@@ -1141,22 +1141,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.470686616351214</v>
+        <v>1.465774066648151</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.960139749009369</v>
+        <v>3.957774638757246</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.290489561357541</v>
+        <v>1.262592192048182</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3.881026844037219</v>
+        <v>3.738685438534143</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.0737194687602</v>
+        <v>1.108140057543538</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>3.4685171709857</v>
+        <v>3.570062321870787</v>
       </c>
     </row>
     <row r="25">
@@ -1170,13 +1170,13 @@
         <v>0.125125405905769</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>1.484258005553803</v>
+        <v>1.484258005553804</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>0.03452812393620504</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>1.302797349093954</v>
+        <v>1.302797349093953</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.07488942535046862</v>
@@ -1193,22 +1193,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.4720960538800558</v>
+        <v>-0.4503619511726721</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.3955929850962988</v>
+        <v>0.3899101251503429</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.4787173399943361</v>
+        <v>-0.4880052312710519</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.4346077162032676</v>
+        <v>0.4201723064708116</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.316774443933753</v>
+        <v>-0.3247097522909577</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6232252645907709</v>
+        <v>0.6673563413682211</v>
       </c>
     </row>
     <row r="27">
@@ -1219,22 +1219,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.30349241325036</v>
+        <v>1.331865085045355</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>3.54967855564732</v>
+        <v>3.699767205453599</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.9626450640424982</v>
+        <v>0.8958810701106751</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>3.071954363228579</v>
+        <v>2.877323555445213</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.7538740012043802</v>
+        <v>0.7996092447935637</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>2.555849409710653</v>
+        <v>2.520437213304465</v>
       </c>
     </row>
     <row r="28">
@@ -1258,7 +1258,7 @@
         <v>0.1832827409928212</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2.825887113242434</v>
+        <v>2.825887113242433</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>0.04744299820814632</v>
@@ -1275,22 +1275,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.6787269547777631</v>
+        <v>-0.6490633925087377</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>2.42862685779368</v>
+        <v>2.312552698071689</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-0.4507470095306949</v>
+        <v>-0.4952723096967137</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2.143792552696347</v>
+        <v>2.135272296708975</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-0.4270551858219535</v>
+        <v>-0.4254958562918416</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>2.455367803977934</v>
+        <v>2.374858651768212</v>
       </c>
     </row>
     <row r="30">
@@ -1301,22 +1301,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.5321097723689854</v>
+        <v>0.5347288568932428</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>3.971868041036964</v>
+        <v>3.879829030544936</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.8758082162362555</v>
+        <v>0.8365977541592998</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>3.559468171930644</v>
+        <v>3.564991784864313</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.4940303718232147</v>
+        <v>0.5063757714770132</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>3.511896628533315</v>
+        <v>3.477232305429793</v>
       </c>
     </row>
     <row r="31">
@@ -1336,7 +1336,7 @@
         <v>0.09892784464265406</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>1.525287759241202</v>
+        <v>1.525287759241201</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.02791949921189076</v>
@@ -1353,22 +1353,22 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.3672231611945717</v>
+        <v>-0.3621788506780518</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>1.267404144230611</v>
+        <v>1.220097870051027</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.2058097462416336</v>
+        <v>-0.2293350723775881</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.9445673898487463</v>
+        <v>0.9405590518504118</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.2204049726797562</v>
+        <v>-0.2246349893793827</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>1.254301831781107</v>
+        <v>1.186959967361414</v>
       </c>
     </row>
     <row r="33">
@@ -1379,22 +1379,22 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.4475197046356508</v>
+        <v>0.4476366003309776</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>3.246238591532286</v>
+        <v>3.20768264798985</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.6015630394910959</v>
+        <v>0.5254646689911758</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>2.359137969748936</v>
+        <v>2.343049558507921</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.3209181768934963</v>
+        <v>0.3530370546545523</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>2.361555661684846</v>
+        <v>2.377378355667097</v>
       </c>
     </row>
     <row r="34">
